--- a/outcome/appendix/data/0_impact/Rubella.xlsx
+++ b/outcome/appendix/data/0_impact/Rubella.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2105.24260558397</v>
+        <v>2105.24241121802</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2383.98077018747</v>
+        <v>2383.98016829847</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>5142.41958590436</v>
+        <v>5142.41872665397</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>10078.5778205056</v>
+        <v>10078.5744933193</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>11097.0980648436</v>
+        <v>11097.0927182587</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6544.26713371339</v>
+        <v>6544.26063743156</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1637.3495313691</v>
+        <v>1637.3451745849</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>625.533035506452</v>
+        <v>625.532499907812</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>864.631459308818</v>
+        <v>864.632388109254</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>851.191281613168</v>
+        <v>851.191809766365</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1122.42029564493</v>
+        <v>1122.42080429444</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1639.76036748181</v>
+        <v>1639.76086591419</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1641.76871559332</v>
+        <v>1641.7692300569</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1340.43612143921</v>
+        <v>1340.43649262027</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3684.7487033699</v>
+        <v>3684.75221763642</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>7064.288961729</v>
+        <v>7064.29389174254</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5856.26795795487</v>
+        <v>5856.26617195418</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1243.08330761837</v>
+        <v>1243.07773209234</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>237.647907970075</v>
+        <v>237.647337881025</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1060.91028320137</v>
+        <v>1060.91305419311</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1223.20582506491</v>
+        <v>1223.20872115178</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>780.938943301649</v>
+        <v>780.94198872436</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1508.76147732173</v>
+        <v>1508.7665377044</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1836.67731901134</v>
+        <v>1836.68182247929</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1912.02199940871</v>
+        <v>1912.02630941745</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3604.06218724939</v>
+        <v>3604.07416126311</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>8686.00196330779</v>
+        <v>8686.02407986899</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>10682.4658786402</v>
+        <v>10682.4734350427</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6315.61203285725</v>
+        <v>6315.60369086015</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1561.46499311549</v>
+        <v>1561.45634900226</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>906.458957162697</v>
+        <v>906.458145363282</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1288.0851298657</v>
+        <v>1288.08946685473</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1043.07872647213</v>
+        <v>1043.08247332562</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1125.3098462516</v>
+        <v>1125.31558191691</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1963.8703928325</v>
+        <v>1963.87488489653</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2016.27662668577</v>
+        <v>2016.27966346379</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1750.88924672585</v>
+        <v>1750.89096124983</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>4883.97770411928</v>
+        <v>4883.99011245916</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
